--- a/municipal/ტრანსპორტი და დასაწყობება/საერთო სარგებლობის საავტომობილო გზების სიგრძე/რაჭა-ლეჩხუმი და ქვემო სვანეთი/ონის მუნიციპალიტეტი.xlsx
+++ b/municipal/ტრანსპორტი და დასაწყობება/საერთო სარგებლობის საავტომობილო გზების სიგრძე/რაჭა-ლეჩხუმი და ქვემო სვანეთი/ონის მუნიციპალიტეტი.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asalukvadze\Desktop\ბაზრები\საერთო სარგებლობის საავტომობილო გზების სიგრძე\რაჭა-ლეჩხუმი და ქვემო სვანეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\ტრანსპორტი და დასაწყობება ქარ. EN\საერთო სარგებლობის საავტომობილო გზების სიგრძე\რაჭა-ლეჩხუმი და ქვემო სვანეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9F976D-5117-4DC0-84CD-EEAD96D018C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="150" windowWidth="13530" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12615" yWindow="150" windowWidth="13530" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="ონის მუნიციპალიტეტი" sheetId="1" r:id="rId1"/>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -186,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -220,6 +219,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,19 +499,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="14" customWidth="1"/>
-    <col min="2" max="5" width="18.140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="6" width="18.140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -520,7 +520,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -529,7 +529,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6">
         <v>2017</v>
@@ -543,8 +543,11 @@
       <c r="E3" s="7">
         <v>2020</v>
       </c>
+      <c r="F3" s="7">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -560,8 +563,11 @@
       <c r="E4" s="10">
         <v>0</v>
       </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -577,11 +583,14 @@
       <c r="E5" s="12">
         <v>101.2</v>
       </c>
+      <c r="F5" s="15">
+        <v>120.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>3</v>
       </c>

--- a/municipal/ტრანსპორტი და დასაწყობება/საერთო სარგებლობის საავტომობილო გზების სიგრძე/რაჭა-ლეჩხუმი და ქვემო სვანეთი/ონის მუნიციპალიტეტი.xlsx
+++ b/municipal/ტრანსპორტი და დასაწყობება/საერთო სარგებლობის საავტომობილო გზების სიგრძე/რაჭა-ლეჩხუმი და ქვემო სვანეთი/ონის მუნიციპალიტეტი.xlsx
@@ -2,28 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\ტრანსპორტი და დასაწყობება ქარ. EN\საერთო სარგებლობის საავტომობილო გზების სიგრძე\რაჭა-ლეჩხუმი და ქვემო სვანეთი\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="150" windowWidth="13530" windowHeight="15600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="ონის მუნიციპალიტეტი" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -101,12 +90,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
@@ -119,6 +102,12 @@
       <color theme="1"/>
       <name val="Sylfaen"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -135,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -163,63 +152,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,98 +458,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="14" customWidth="1"/>
-    <col min="2" max="6" width="18.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="24.5703125" style="6" customWidth="1"/>
+    <col min="2" max="7" width="16.85546875" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6">
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5">
         <v>2017</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>2018</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>2019</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>2020</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="G3" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>101.2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>101.2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>101.2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <v>101.2</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="9">
         <v>120.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="G5" s="9">
+        <v>120.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
